--- a/09-29-24 to 10-05-24 Madison Schedule.xlsx
+++ b/09-29-24 to 10-05-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,7 +717,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -768,7 +768,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #702, HILLDALE</t>
+          <t>DHILLON'S BP, IRON RIDGE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -819,7 +819,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>726 N MIDVALE BLVD</t>
+          <t>210 W PLEASANT ST</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -870,7 +870,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xRLny7qPhJS2</t>
+          <t>https://goo.gl/maps/qwc1LRfmy572</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -917,7 +917,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -970,11 +970,7 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1036,13 +1032,21 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #2600, WEST MADISON</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1095,10 +1099,14 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7455 MINERAL POINT RD</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1170,7 +1178,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1179,10 +1187,14 @@
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NW4tsxQQBWF2</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1200,7 +1212,8 @@
       <c r="K17" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Gray Van,
+Trainer</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1252,7 +1265,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1261,13 +1274,22 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:45 am at IL Office</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1291,7 +1313,11 @@
           <t>Anisha</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1316,12 +1342,13 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1333,11 +1360,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>PERISHABLE INVENTORY ONLY AT BOTH STORES</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
@@ -1399,13 +1422,13 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+work w/ ?</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -1417,11 +1440,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5:15 am meet for Sarah and Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
@@ -1431,10 +1450,14 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Bonnie</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1st Scan, work w/ Angela</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1443,12 +1466,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>2nd Scan, work w/ Anisha</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1471,13 +1494,13 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
           <t>@ Store,
-work w/ ?</t>
+2nd week, work w/ Lashaun</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1493,7 +1516,11 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
@@ -1503,7 +1530,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1515,10 +1542,14 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1544,13 +1575,12 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd week, work w/ Lashaun</t>
+          <t>@ Store, Until 1:15</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1565,21 +1595,13 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>@ Store, Supv West</t>
-        </is>
-      </c>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1588,7 +1610,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1600,7 +1622,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1612,10 +1634,14 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Bonnie</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2nd Scan, work w/ Michael</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1624,12 +1650,12 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>@ Store, Until 1:15</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1644,21 +1670,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>@ Store w/ Sarah</t>
-        </is>
-      </c>
+          <t>DHILLON'S STATION HUSTIS, HUSTISFORD</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
@@ -1667,7 +1685,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1679,7 +1697,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1691,15 +1709,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -1716,22 +1729,13 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>326 W JUNEAU ST</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1740,7 +1744,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1752,16 +1756,10 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla,
-Rx</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1770,10 +1768,15 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Corolla</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -1790,21 +1793,13 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/2MvPuCPioicrHiKc6</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -1813,16 +1808,10 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Trainer</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1831,10 +1820,16 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Corolla,
+Rx</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1843,7 +1838,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1867,23 +1862,13 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima,
-Supv Hilldale</t>
-        </is>
-      </c>
+          <t>*IL Meet is 4:30 am at IL Office</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
@@ -1892,10 +1877,16 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Trainer</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -1904,7 +1895,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1916,16 +1907,10 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla,
-Rx</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
@@ -1942,16 +1927,8 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -1961,14 +1938,10 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -1977,14 +1950,10 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1993,10 +1962,16 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Keilah</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Corolla,
+Rx</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
@@ -2025,9 +2000,21 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
@@ -2036,7 +2023,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2052,7 +2039,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2068,7 +2055,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -2096,9 +2083,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
@@ -2107,13 +2107,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx (2nd Rx)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2124,7 +2123,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2140,14 +2139,10 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>5:00 am @ Hwy N PnR, Driver 1/2</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
@@ -2172,13 +2167,22 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
@@ -2187,12 +2191,13 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx (2nd Rx)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2203,13 +2208,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Scan, work w/ Angela</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2220,10 +2224,14 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>5:00 am @ Hwy N PnR, Driver 1/2</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
@@ -2253,10 +2261,14 @@
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2268,13 +2280,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>@ Store,
-1st Scan, work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2285,12 +2296,13 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Scan, work w/ Angela</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2301,15 +2313,10 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
@@ -2334,13 +2341,21 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, IRON RIDGE</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
@@ -2349,12 +2364,13 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+1st Scan, work w/ Michael</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
@@ -2365,7 +2381,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2381,74 +2397,96 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3,
+Trainer</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>4:30 am meet for Sarah and Aivy at Wayside Park, (then meet Seth)</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
           <t>Qiana</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>Driver, 1/2
 Camry 3,
 Supv Rx</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>4:30 am meet for Sarah and Aivy at Wayside Park, (then meet Seth)</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>210 W PLEASANT ST</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -2464,11 +2502,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/qwc1LRfmy572</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2486,10 +2520,14 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Driver 1/2</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -2518,25 +2556,17 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>8:00 AM START</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
@@ -2546,14 +2576,10 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
@@ -2583,13 +2609,17 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2597,7 +2627,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2609,13 +2639,12 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 10:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -2632,7 +2661,7 @@
       <c r="W36" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Gray Van, work w/ Seth</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2647,26 +2676,18 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>AURORA OUTPATIENT RX #1174 WALWORTH</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>MILE BLUFF RETAIL IN PHILLIPS RX OUTPATIENT PHARMACY, MAUSTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2674,14 +2695,27 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>MAURER'S MARKET, WISCONSIN DELLS</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 10:00</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
@@ -2706,14 +2740,10 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>525 KENOSHA ST, SUITE C</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2721,7 +2751,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>123 E STATE ST</t>
+          <t>MILE BLUFF RETAIL IN PHILLIPS RX OUTPATIENT PHARMACY, MAUSTON</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2729,7 +2759,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>216 WASHINGTON AVE</t>
+          <t>MAURER'S MARKET, WISCONSIN DELLS</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2765,14 +2795,10 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>https://goo.gl/maps/HYXAm9E8G2X4pAUGA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2780,7 +2806,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gE2iRCFTg6xp5x8Y9</t>
+          <t>123 E STATE ST</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2788,7 +2814,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CXVPLJR1DyH2</t>
+          <t>216 WASHINGTON AVE</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2820,27 +2846,18 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>*5:00 am IL office leave time</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>7:30 am meet for Sarah, Aivy &amp; Lori at WI Dells Walmart</t>
+          <t>https://goo.gl/maps/gE2iRCFTg6xp5x8Y9</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2848,7 +2865,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
+          <t>https://goo.gl/maps/CXVPLJR1DyH2</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2885,13 +2902,17 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>7:30 am meet for Sarah, Aivy &amp; Lori at WI Dells Walmart</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>6:15 am Savannah &amp; Seth meet Rockford crew at DeForest PnR (Pink Elephant)</t>
+          <t>*IL Meet is 5:00 am at IL Office</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2924,31 +2945,30 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Deforest PnR address: 
-5012 Elephant Trail, Deforest</t>
+          <t>6:15 am Savannah meet Rockford crew at DeForest PnR (Pink Elephant)</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2988,34 +3008,43 @@
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Camry 3</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah, 2nd Rx</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Michael to pick up Savannah/Seth in Gray Van</t>
+          <t>Deforest PnR address: 
+5012 Elephant Trail, Deforest</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3052,31 +3081,31 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>@ WI Dells</t>
+          <t>@ Store w/ Sarah, 2nd Rx</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Michael to pick up Savannah in Gray Van</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -3116,32 +3145,28 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>DHILLON'S STATION HUSTIS, HUSTISFORD</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>@ WI Dells</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -3177,7 +3202,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>326 W JUNEAU ST</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3188,17 +3213,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -3241,30 +3266,30 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2MvPuCPioicrHiKc6</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -3303,29 +3328,25 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3353,45 +3374,33 @@
       <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>@ Store w/ Lori</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3409,7 +3418,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>meet Sarah 5:00 am @ Hwy N PnR</t>
+          <t>meet Sarah 5:00 am @ Hwy N PnR, 2nd Scan, work w/ Angela</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -3420,21 +3429,9 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3442,15 +3439,19 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Keilah</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>@ Store w/ Lori</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3464,25 +3465,16 @@
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3490,19 +3482,15 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>@ Store, Driver</t>
-        </is>
-      </c>
+          <t>Keilah</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3518,27 +3506,14 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3546,18 +3521,17 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van</t>
+          <t>@ Store, Driver</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -3579,21 +3553,13 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -3602,18 +3568,18 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>Driver,
+Gray Van</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
@@ -3635,7 +3601,7 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
+          <t>7000 W STATE ST</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -3650,12 +3616,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3683,7 +3649,7 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7000 W STATE ST</t>
+          <t>https://goo.gl/maps/9Apjjj8M6672</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -3698,17 +3664,18 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>@ Deforest Park n Ride</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -3728,19 +3695,11 @@
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/9Apjjj8M6672</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -3749,12 +3708,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3778,16 +3737,24 @@
       <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -3811,26 +3778,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>AURORA OUTPATIENT RX #1174 WALWORTH</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -3866,12 +3829,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3881,11 +3844,7 @@
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>525 KENOSHA ST, SUITE C</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3921,26 +3880,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 10:45</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/HYXAm9E8G2X4pAUGA</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -3948,11 +3904,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3966,26 +3918,22 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3995,11 +3943,7 @@
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>*5:00 am IL office leave time</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -4021,7 +3965,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -4031,17 +3975,18 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 10:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -4068,7 +4013,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -4076,38 +4021,13 @@
       <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 10:00</t>
-        </is>
-      </c>
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -4121,50 +4041,19 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Camry 3</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
